--- a/CaseAndFatalityDemographicsData/2021-08-06.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-08-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfreeland361\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40796005-1DA7-463E-8802-B2195C8A9993}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B9D7AA-F79F-4FD3-A664-A27C519316C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="12550" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -614,16 +614,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -646,7 +646,7 @@
         <v>3.5361647553945191E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1.7606116070872712E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>4.8672070524074559E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0.19828670327344267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0.21768580429071258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0.19089064036955411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0.1611071682044003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -730,7 +730,7 @@
         <v>5.8309364610959619E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>3.945812010508884E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2.3943819805012888E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1.5862936261875411E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -778,7 +778,7 @@
         <v>2.4479225032062058E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1.618666965497491E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -814,12 +814,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -908,12 +908,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1043,98 +1043,98 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="22"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="22"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="22"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="18"/>
       <c r="D18" s="21"/>
       <c r="E18" s="18"/>
       <c r="F18" s="22"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="18"/>
       <c r="D19" s="21"/>
       <c r="E19" s="18"/>
       <c r="F19" s="22"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1151,15 +1151,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1170,19 +1170,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.3450932918275974E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5275921329005156E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,130 +1191,130 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.6901865836551948E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6732862325759023E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.9176226436847867E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.0651136146648841E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.3803731673103903E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.4802367767805994E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.7774447070578965E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.787282795493603E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2689</v>
+        <v>2720</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.1670798024634423E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1938132518617529E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5979</v>
+        <v>6037</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.1148901827405315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.11527592132900516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4940</v>
+        <v>4982</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.4925155166119018E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.5130800076379612E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6332</v>
+        <v>6369</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12167329605503353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1216154286805423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6949</v>
+        <v>6979</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13352933264157107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.13326331869390873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6837</v>
+        <v>6876</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13137718337464691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.13129654382279932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>17053</v>
+        <v>17125</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.32768394150765745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.32700019094901661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1326,13 +1326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <f>SUM(B2:B14)</f>
-        <v>52041</v>
+        <v>52370</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1349,12 +1348,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1365,31 +1364,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>21826</v>
+        <v>21956</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41940008839184489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.41924766087454651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>30214</v>
+        <v>30413</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58058069598970041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.58073324422379224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1398,16 +1397,15 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9215618454679963E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9094901661256445E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>52041</v>
+        <v>52370</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1423,16 +1421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1443,68 +1441,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.1117964681693281E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.1023486729043344E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5319</v>
+        <v>5342</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10220787456044272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.10200496467443193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>24101</v>
+        <v>24208</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.46311562037624182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.46224937941569599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.51488249649315E-3</v>
+        <v>5.5566163834256258E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>21212</v>
+        <v>21405</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.40760169866067142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.40872637005919421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1513,16 +1511,15 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.4195922445763918E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.3918273820889824E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>52041</v>
+        <v>52370</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
